--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seikihashimoto/Documents/GitHub/mky/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E9FBCE-53EE-0F47-9C65-89A8BC4C85D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1E0D79-0F6E-1642-97A2-B387437FEF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1940" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{7832A2C1-4BCE-E547-A433-9A86F3A78AAB}"/>
+    <workbookView xWindow="2400" yWindow="800" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{7832A2C1-4BCE-E547-A433-9A86F3A78AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>画面設計書</t>
   </si>
@@ -309,6 +309,32 @@
     <rPh sb="5" eb="8">
       <t xml:space="preserve">サイハッコウ </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録時のメールアドレスを入力</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">トウロクジノ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>送信</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ソウシｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キャンセル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインページへ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password.jsp</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -636,6 +662,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,15 +700,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,146 +1245,146 @@
   </cols>
   <sheetData>
     <row r="7" spans="16:34">
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="29"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="32"/>
     </row>
     <row r="8" spans="16:34">
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="32"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="35"/>
     </row>
     <row r="9" spans="16:34">
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="35"/>
     </row>
     <row r="10" spans="16:34">
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="35"/>
     </row>
     <row r="11" spans="16:34">
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="35"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="38"/>
     </row>
     <row r="13" spans="16:34">
-      <c r="U13" s="36" t="s">
+      <c r="U13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
     </row>
     <row r="14" spans="16:34">
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
     </row>
     <row r="15" spans="16:34">
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1376,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2363D9-EAC3-0045-A71A-8B41EB0A73F9}">
-  <dimension ref="B1:BY58"/>
+  <dimension ref="B1:CW54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS31" sqref="AS31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.28515625" defaultRowHeight="14"/>
@@ -1387,12 +1413,12 @@
     <col min="1" max="16384" width="2.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:77">
+    <row r="1" spans="2:101">
       <c r="AO1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:77">
+    <row r="2" spans="2:101">
       <c r="Q2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:77">
+    <row r="3" spans="2:101">
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:77">
+    <row r="4" spans="2:101">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1476,7 +1502,7 @@
       <c r="BX4" s="16"/>
       <c r="BY4" s="17"/>
     </row>
-    <row r="5" spans="2:77">
+    <row r="5" spans="2:101">
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
         <v>2</v>
@@ -1553,7 +1579,7 @@
       <c r="BX5" s="26"/>
       <c r="BY5" s="19"/>
     </row>
-    <row r="6" spans="2:77">
+    <row r="6" spans="2:101">
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1615,7 +1641,7 @@
       <c r="BX6" s="21"/>
       <c r="BY6" s="22"/>
     </row>
-    <row r="7" spans="2:77">
+    <row r="7" spans="2:101">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1677,7 +1703,7 @@
       <c r="BX7" s="16"/>
       <c r="BY7" s="17"/>
     </row>
-    <row r="8" spans="2:77">
+    <row r="8" spans="2:101">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1743,7 +1769,7 @@
       <c r="BX8" s="23"/>
       <c r="BY8" s="19"/>
     </row>
-    <row r="9" spans="2:77" ht="14" customHeight="1">
+    <row r="9" spans="2:101" ht="14" customHeight="1">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1811,7 +1837,7 @@
       <c r="BX9" s="23"/>
       <c r="BY9" s="19"/>
     </row>
-    <row r="10" spans="2:77" ht="14" customHeight="1">
+    <row r="10" spans="2:101" ht="14" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1872,7 +1898,7 @@
       <c r="BX10" s="21"/>
       <c r="BY10" s="22"/>
     </row>
-    <row r="11" spans="2:77" ht="14" customHeight="1">
+    <row r="11" spans="2:101" ht="14" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1937,7 +1963,7 @@
       <c r="BX11" s="14"/>
       <c r="BY11" s="19"/>
     </row>
-    <row r="12" spans="2:77" ht="14" customHeight="1">
+    <row r="12" spans="2:101" ht="14" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2003,8 +2029,23 @@
       <c r="BW12" s="14"/>
       <c r="BX12" s="14"/>
       <c r="BY12" s="19"/>
-    </row>
-    <row r="13" spans="2:77" ht="14" customHeight="1">
+      <c r="CI12" s="15"/>
+      <c r="CJ12" s="16"/>
+      <c r="CK12" s="16"/>
+      <c r="CL12" s="16"/>
+      <c r="CM12" s="16"/>
+      <c r="CN12" s="16"/>
+      <c r="CO12" s="16"/>
+      <c r="CP12" s="16"/>
+      <c r="CQ12" s="16"/>
+      <c r="CR12" s="16"/>
+      <c r="CS12" s="16"/>
+      <c r="CT12" s="16"/>
+      <c r="CU12" s="16"/>
+      <c r="CV12" s="16"/>
+      <c r="CW12" s="17"/>
+    </row>
+    <row r="13" spans="2:101" ht="14" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2065,8 +2106,25 @@
       <c r="BW13" s="14"/>
       <c r="BX13" s="14"/>
       <c r="BY13" s="19"/>
-    </row>
-    <row r="14" spans="2:77">
+      <c r="CI13" s="18"/>
+      <c r="CJ13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK13" s="14"/>
+      <c r="CL13" s="14"/>
+      <c r="CM13" s="14"/>
+      <c r="CN13" s="14"/>
+      <c r="CO13" s="14"/>
+      <c r="CP13" s="14"/>
+      <c r="CQ13" s="14"/>
+      <c r="CR13" s="14"/>
+      <c r="CS13" s="14"/>
+      <c r="CT13" s="14"/>
+      <c r="CU13" s="14"/>
+      <c r="CV13" s="14"/>
+      <c r="CW13" s="19"/>
+    </row>
+    <row r="14" spans="2:101">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2130,8 +2188,23 @@
       <c r="BW14" s="14"/>
       <c r="BX14" s="14"/>
       <c r="BY14" s="19"/>
-    </row>
-    <row r="15" spans="2:77" ht="14" customHeight="1">
+      <c r="CI14" s="20"/>
+      <c r="CJ14" s="21"/>
+      <c r="CK14" s="21"/>
+      <c r="CL14" s="21"/>
+      <c r="CM14" s="21"/>
+      <c r="CN14" s="21"/>
+      <c r="CO14" s="21"/>
+      <c r="CP14" s="21"/>
+      <c r="CQ14" s="21"/>
+      <c r="CR14" s="21"/>
+      <c r="CS14" s="21"/>
+      <c r="CT14" s="21"/>
+      <c r="CU14" s="21"/>
+      <c r="CV14" s="21"/>
+      <c r="CW14" s="22"/>
+    </row>
+    <row r="15" spans="2:101" ht="14" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2194,8 +2267,23 @@
       <c r="BW15" s="14"/>
       <c r="BX15" s="23"/>
       <c r="BY15" s="19"/>
-    </row>
-    <row r="16" spans="2:77" ht="14" customHeight="1">
+      <c r="CI15" s="18"/>
+      <c r="CJ15" s="14"/>
+      <c r="CK15" s="14"/>
+      <c r="CL15" s="14"/>
+      <c r="CM15" s="14"/>
+      <c r="CN15" s="14"/>
+      <c r="CO15" s="14"/>
+      <c r="CP15" s="14"/>
+      <c r="CQ15" s="14"/>
+      <c r="CR15" s="14"/>
+      <c r="CS15" s="14"/>
+      <c r="CT15" s="14"/>
+      <c r="CU15" s="14"/>
+      <c r="CV15" s="14"/>
+      <c r="CW15" s="19"/>
+    </row>
+    <row r="16" spans="2:101" ht="14" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2213,7 +2301,7 @@
       <c r="P16" s="7"/>
       <c r="W16" s="18"/>
       <c r="X16" s="14"/>
-      <c r="Y16" s="37" t="s">
+      <c r="Y16" s="27" t="s">
         <v>15</v>
       </c>
       <c r="Z16" s="14"/>
@@ -2238,7 +2326,7 @@
       <c r="AV16" s="25"/>
       <c r="AW16" s="25"/>
       <c r="AX16" s="26"/>
-      <c r="AY16" s="38"/>
+      <c r="AY16" s="28"/>
       <c r="AZ16" s="14"/>
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
@@ -2262,8 +2350,23 @@
       <c r="BW16" s="16"/>
       <c r="BX16" s="16"/>
       <c r="BY16" s="17"/>
-    </row>
-    <row r="17" spans="2:77" ht="14" customHeight="1">
+      <c r="CI16" s="18"/>
+      <c r="CJ16" s="14"/>
+      <c r="CK16" s="14"/>
+      <c r="CL16" s="14"/>
+      <c r="CM16" s="14"/>
+      <c r="CN16" s="14"/>
+      <c r="CO16" s="14"/>
+      <c r="CP16" s="14"/>
+      <c r="CQ16" s="14"/>
+      <c r="CR16" s="14"/>
+      <c r="CS16" s="14"/>
+      <c r="CT16" s="14"/>
+      <c r="CU16" s="14"/>
+      <c r="CV16" s="14"/>
+      <c r="CW16" s="19"/>
+    </row>
+    <row r="17" spans="2:101" ht="14" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2323,8 +2426,23 @@
       <c r="BW17" s="14"/>
       <c r="BX17" s="14"/>
       <c r="BY17" s="19"/>
-    </row>
-    <row r="18" spans="2:77">
+      <c r="CI17" s="18"/>
+      <c r="CJ17" s="14"/>
+      <c r="CK17" s="14"/>
+      <c r="CL17" s="14"/>
+      <c r="CM17" s="14"/>
+      <c r="CN17" s="14"/>
+      <c r="CO17" s="14"/>
+      <c r="CP17" s="14"/>
+      <c r="CQ17" s="14"/>
+      <c r="CR17" s="14"/>
+      <c r="CS17" s="14"/>
+      <c r="CT17" s="14"/>
+      <c r="CU17" s="14"/>
+      <c r="CV17" s="14"/>
+      <c r="CW17" s="19"/>
+    </row>
+    <row r="18" spans="2:101">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2391,8 +2509,23 @@
       <c r="BW18" s="14"/>
       <c r="BX18" s="14"/>
       <c r="BY18" s="19"/>
-    </row>
-    <row r="19" spans="2:77">
+      <c r="CI18" s="18"/>
+      <c r="CJ18" s="14"/>
+      <c r="CK18" s="14"/>
+      <c r="CL18" s="14"/>
+      <c r="CM18" s="14"/>
+      <c r="CN18" s="14"/>
+      <c r="CO18" s="14"/>
+      <c r="CP18" s="14"/>
+      <c r="CQ18" s="14"/>
+      <c r="CR18" s="14"/>
+      <c r="CS18" s="14"/>
+      <c r="CT18" s="14"/>
+      <c r="CU18" s="14"/>
+      <c r="CV18" s="14"/>
+      <c r="CW18" s="19"/>
+    </row>
+    <row r="19" spans="2:101">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2453,8 +2586,23 @@
       <c r="BW19" s="14"/>
       <c r="BX19" s="14"/>
       <c r="BY19" s="19"/>
-    </row>
-    <row r="20" spans="2:77">
+      <c r="CI19" s="18"/>
+      <c r="CJ19" s="14"/>
+      <c r="CK19" s="14"/>
+      <c r="CL19" s="14"/>
+      <c r="CM19" s="14"/>
+      <c r="CN19" s="14"/>
+      <c r="CO19" s="14"/>
+      <c r="CP19" s="14"/>
+      <c r="CQ19" s="14"/>
+      <c r="CR19" s="14"/>
+      <c r="CS19" s="14"/>
+      <c r="CT19" s="14"/>
+      <c r="CU19" s="14"/>
+      <c r="CV19" s="14"/>
+      <c r="CW19" s="19"/>
+    </row>
+    <row r="20" spans="2:101">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2519,8 +2667,23 @@
       <c r="BW20" s="14"/>
       <c r="BX20" s="14"/>
       <c r="BY20" s="19"/>
-    </row>
-    <row r="21" spans="2:77">
+      <c r="CI20" s="18"/>
+      <c r="CJ20" s="14"/>
+      <c r="CK20" s="14"/>
+      <c r="CL20" s="14"/>
+      <c r="CM20" s="14"/>
+      <c r="CN20" s="14"/>
+      <c r="CO20" s="14"/>
+      <c r="CP20" s="14"/>
+      <c r="CQ20" s="14"/>
+      <c r="CR20" s="14"/>
+      <c r="CS20" s="14"/>
+      <c r="CT20" s="14"/>
+      <c r="CU20" s="14"/>
+      <c r="CV20" s="14"/>
+      <c r="CW20" s="19"/>
+    </row>
+    <row r="21" spans="2:101">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2581,8 +2744,23 @@
       <c r="BW21" s="14"/>
       <c r="BX21" s="14"/>
       <c r="BY21" s="19"/>
-    </row>
-    <row r="22" spans="2:77">
+      <c r="CI21" s="18"/>
+      <c r="CJ21" s="14"/>
+      <c r="CK21" s="14"/>
+      <c r="CL21" s="14"/>
+      <c r="CM21" s="14"/>
+      <c r="CN21" s="14"/>
+      <c r="CO21" s="14"/>
+      <c r="CP21" s="14"/>
+      <c r="CQ21" s="14"/>
+      <c r="CR21" s="14"/>
+      <c r="CS21" s="14"/>
+      <c r="CT21" s="14"/>
+      <c r="CU21" s="14"/>
+      <c r="CV21" s="14"/>
+      <c r="CW21" s="19"/>
+    </row>
+    <row r="22" spans="2:101">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -2637,8 +2815,23 @@
       <c r="BW22" s="14"/>
       <c r="BX22" s="14"/>
       <c r="BY22" s="19"/>
-    </row>
-    <row r="23" spans="2:77">
+      <c r="CI22" s="18"/>
+      <c r="CJ22" s="14"/>
+      <c r="CK22" s="14"/>
+      <c r="CL22" s="14"/>
+      <c r="CM22" s="14"/>
+      <c r="CN22" s="14"/>
+      <c r="CO22" s="14"/>
+      <c r="CP22" s="14"/>
+      <c r="CQ22" s="14"/>
+      <c r="CR22" s="14"/>
+      <c r="CS22" s="14"/>
+      <c r="CT22" s="14"/>
+      <c r="CU22" s="14"/>
+      <c r="CV22" s="14"/>
+      <c r="CW22" s="19"/>
+    </row>
+    <row r="23" spans="2:101">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2698,8 +2891,23 @@
       <c r="BW23" s="14"/>
       <c r="BX23" s="14"/>
       <c r="BY23" s="19"/>
-    </row>
-    <row r="24" spans="2:77">
+      <c r="CI23" s="18"/>
+      <c r="CJ23" s="23"/>
+      <c r="CK23" s="23"/>
+      <c r="CL23" s="23"/>
+      <c r="CM23" s="14"/>
+      <c r="CN23" s="14"/>
+      <c r="CO23" s="14"/>
+      <c r="CP23" s="14"/>
+      <c r="CQ23" s="14"/>
+      <c r="CR23" s="14"/>
+      <c r="CS23" s="14"/>
+      <c r="CT23" s="14"/>
+      <c r="CU23" s="14"/>
+      <c r="CV23" s="23"/>
+      <c r="CW23" s="19"/>
+    </row>
+    <row r="24" spans="2:101">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2760,8 +2968,23 @@
       <c r="BW24" s="16"/>
       <c r="BX24" s="16"/>
       <c r="BY24" s="17"/>
-    </row>
-    <row r="25" spans="2:77">
+      <c r="CI24" s="18"/>
+      <c r="CJ24" s="14"/>
+      <c r="CK24" s="14"/>
+      <c r="CL24" s="14"/>
+      <c r="CM24" s="14"/>
+      <c r="CN24" s="14"/>
+      <c r="CO24" s="14"/>
+      <c r="CP24" s="14"/>
+      <c r="CQ24" s="14"/>
+      <c r="CR24" s="14"/>
+      <c r="CS24" s="14"/>
+      <c r="CT24" s="14"/>
+      <c r="CU24" s="14"/>
+      <c r="CV24" s="14"/>
+      <c r="CW24" s="19"/>
+    </row>
+    <row r="25" spans="2:101">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2830,8 +3053,23 @@
       <c r="BW25" s="14"/>
       <c r="BX25" s="14"/>
       <c r="BY25" s="19"/>
-    </row>
-    <row r="26" spans="2:77">
+      <c r="CI25" s="18"/>
+      <c r="CJ25" s="14"/>
+      <c r="CK25" s="14"/>
+      <c r="CL25" s="14"/>
+      <c r="CM25" s="14"/>
+      <c r="CN25" s="14"/>
+      <c r="CO25" s="14"/>
+      <c r="CP25" s="14"/>
+      <c r="CQ25" s="14"/>
+      <c r="CR25" s="14"/>
+      <c r="CS25" s="14"/>
+      <c r="CT25" s="14"/>
+      <c r="CU25" s="14"/>
+      <c r="CV25" s="14"/>
+      <c r="CW25" s="19"/>
+    </row>
+    <row r="26" spans="2:101">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2892,13 +3130,114 @@
       <c r="BW26" s="21"/>
       <c r="BX26" s="21"/>
       <c r="BY26" s="22"/>
-    </row>
-    <row r="31" spans="2:77">
+      <c r="CI26" s="18"/>
+      <c r="CJ26" s="14"/>
+      <c r="CK26" s="14"/>
+      <c r="CL26" s="14"/>
+      <c r="CM26" s="14"/>
+      <c r="CN26" s="14"/>
+      <c r="CO26" s="14"/>
+      <c r="CP26" s="14"/>
+      <c r="CQ26" s="14"/>
+      <c r="CR26" s="14"/>
+      <c r="CS26" s="14"/>
+      <c r="CT26" s="14"/>
+      <c r="CU26" s="14"/>
+      <c r="CV26" s="14"/>
+      <c r="CW26" s="19"/>
+    </row>
+    <row r="27" spans="2:101">
+      <c r="CI27" s="18"/>
+      <c r="CJ27" s="14"/>
+      <c r="CK27" s="14"/>
+      <c r="CL27" s="14"/>
+      <c r="CM27" s="14"/>
+      <c r="CN27" s="14"/>
+      <c r="CO27" s="14"/>
+      <c r="CP27" s="14"/>
+      <c r="CQ27" s="14"/>
+      <c r="CR27" s="14"/>
+      <c r="CS27" s="14"/>
+      <c r="CT27" s="14"/>
+      <c r="CU27" s="14"/>
+      <c r="CV27" s="14"/>
+      <c r="CW27" s="19"/>
+    </row>
+    <row r="28" spans="2:101">
+      <c r="CI28" s="18"/>
+      <c r="CJ28" s="14"/>
+      <c r="CK28" s="14"/>
+      <c r="CL28" s="14"/>
+      <c r="CM28" s="14"/>
+      <c r="CN28" s="14"/>
+      <c r="CO28" s="14"/>
+      <c r="CP28" s="14"/>
+      <c r="CQ28" s="14"/>
+      <c r="CR28" s="14"/>
+      <c r="CS28" s="14"/>
+      <c r="CT28" s="14"/>
+      <c r="CU28" s="14"/>
+      <c r="CV28" s="14"/>
+      <c r="CW28" s="19"/>
+    </row>
+    <row r="29" spans="2:101">
+      <c r="CI29" s="18"/>
+      <c r="CJ29" s="14"/>
+      <c r="CK29" s="14"/>
+      <c r="CL29" s="14"/>
+      <c r="CM29" s="14"/>
+      <c r="CN29" s="14"/>
+      <c r="CO29" s="14"/>
+      <c r="CP29" s="14"/>
+      <c r="CQ29" s="14"/>
+      <c r="CR29" s="14"/>
+      <c r="CS29" s="14"/>
+      <c r="CT29" s="14"/>
+      <c r="CU29" s="14"/>
+      <c r="CV29" s="14"/>
+      <c r="CW29" s="19"/>
+    </row>
+    <row r="30" spans="2:101">
+      <c r="CI30" s="18"/>
+      <c r="CJ30" s="14"/>
+      <c r="CK30" s="14"/>
+      <c r="CL30" s="14"/>
+      <c r="CM30" s="14"/>
+      <c r="CN30" s="14"/>
+      <c r="CO30" s="14"/>
+      <c r="CP30" s="14"/>
+      <c r="CQ30" s="14"/>
+      <c r="CR30" s="14"/>
+      <c r="CS30" s="14"/>
+      <c r="CT30" s="14"/>
+      <c r="CU30" s="14"/>
+      <c r="CV30" s="14"/>
+      <c r="CW30" s="19"/>
+    </row>
+    <row r="31" spans="2:101">
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="2:77">
+      <c r="X31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI31" s="18"/>
+      <c r="CJ31" s="14"/>
+      <c r="CK31" s="14"/>
+      <c r="CL31" s="14"/>
+      <c r="CM31" s="14"/>
+      <c r="CN31" s="14"/>
+      <c r="CO31" s="14"/>
+      <c r="CP31" s="14"/>
+      <c r="CQ31" s="14"/>
+      <c r="CR31" s="14"/>
+      <c r="CS31" s="14"/>
+      <c r="CT31" s="14"/>
+      <c r="CU31" s="14"/>
+      <c r="CV31" s="14"/>
+      <c r="CW31" s="19"/>
+    </row>
+    <row r="32" spans="2:101">
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -2929,8 +3268,38 @@
       <c r="AI32" s="16"/>
       <c r="AJ32" s="16"/>
       <c r="AK32" s="17"/>
-    </row>
-    <row r="33" spans="2:61">
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="16"/>
+      <c r="AS32" s="16"/>
+      <c r="AT32" s="16"/>
+      <c r="AU32" s="16"/>
+      <c r="AV32" s="16"/>
+      <c r="AW32" s="16"/>
+      <c r="AX32" s="16"/>
+      <c r="AY32" s="16"/>
+      <c r="AZ32" s="16"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
+      <c r="BC32" s="16"/>
+      <c r="BD32" s="16"/>
+      <c r="BE32" s="17"/>
+      <c r="CI32" s="15"/>
+      <c r="CJ32" s="16"/>
+      <c r="CK32" s="16"/>
+      <c r="CL32" s="16"/>
+      <c r="CM32" s="16"/>
+      <c r="CN32" s="16"/>
+      <c r="CO32" s="16"/>
+      <c r="CP32" s="16"/>
+      <c r="CQ32" s="16"/>
+      <c r="CR32" s="16"/>
+      <c r="CS32" s="16"/>
+      <c r="CT32" s="16"/>
+      <c r="CU32" s="16"/>
+      <c r="CV32" s="16"/>
+      <c r="CW32" s="17"/>
+    </row>
+    <row r="33" spans="2:101">
       <c r="B33" s="18"/>
       <c r="C33" s="14" t="s">
         <v>16</v>
@@ -2968,9 +3337,43 @@
       <c r="AH33" s="25"/>
       <c r="AI33" s="25"/>
       <c r="AJ33" s="26"/>
-      <c r="AK33" s="39"/>
-    </row>
-    <row r="34" spans="2:61">
+      <c r="AK33" s="29"/>
+      <c r="AQ33" s="18"/>
+      <c r="AR33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="14"/>
+      <c r="BB33" s="14"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="14"/>
+      <c r="BE33" s="19"/>
+      <c r="CI33" s="18"/>
+      <c r="CJ33" s="14"/>
+      <c r="CK33" s="14"/>
+      <c r="CL33" s="14"/>
+      <c r="CM33" s="14"/>
+      <c r="CN33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO33" s="14"/>
+      <c r="CP33" s="14"/>
+      <c r="CQ33" s="14"/>
+      <c r="CR33" s="14"/>
+      <c r="CS33" s="14"/>
+      <c r="CT33" s="14"/>
+      <c r="CU33" s="14"/>
+      <c r="CV33" s="14"/>
+      <c r="CW33" s="19"/>
+    </row>
+    <row r="34" spans="2:101">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -3001,8 +3404,38 @@
       <c r="AI34" s="21"/>
       <c r="AJ34" s="21"/>
       <c r="AK34" s="22"/>
-    </row>
-    <row r="35" spans="2:61">
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
+      <c r="AT34" s="21"/>
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
+      <c r="AW34" s="21"/>
+      <c r="AX34" s="21"/>
+      <c r="AY34" s="21"/>
+      <c r="AZ34" s="21"/>
+      <c r="BA34" s="21"/>
+      <c r="BB34" s="21"/>
+      <c r="BC34" s="21"/>
+      <c r="BD34" s="21"/>
+      <c r="BE34" s="22"/>
+      <c r="CI34" s="20"/>
+      <c r="CJ34" s="21"/>
+      <c r="CK34" s="21"/>
+      <c r="CL34" s="21"/>
+      <c r="CM34" s="21"/>
+      <c r="CN34" s="21"/>
+      <c r="CO34" s="21"/>
+      <c r="CP34" s="21"/>
+      <c r="CQ34" s="21"/>
+      <c r="CR34" s="21"/>
+      <c r="CS34" s="21"/>
+      <c r="CT34" s="21"/>
+      <c r="CU34" s="21"/>
+      <c r="CV34" s="21"/>
+      <c r="CW34" s="22"/>
+    </row>
+    <row r="35" spans="2:101">
       <c r="B35" s="18"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -3033,8 +3466,23 @@
       <c r="AI35" s="14"/>
       <c r="AJ35" s="14"/>
       <c r="AK35" s="19"/>
-    </row>
-    <row r="36" spans="2:61">
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="14"/>
+      <c r="BB35" s="14"/>
+      <c r="BC35" s="14"/>
+      <c r="BD35" s="14"/>
+      <c r="BE35" s="19"/>
+    </row>
+    <row r="36" spans="2:101">
       <c r="B36" s="18"/>
       <c r="C36" s="14" t="s">
         <v>12</v>
@@ -3067,23 +3515,23 @@
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
       <c r="AK36" s="19"/>
-      <c r="AU36" s="15"/>
-      <c r="AV36" s="16"/>
-      <c r="AW36" s="16"/>
-      <c r="AX36" s="16"/>
-      <c r="AY36" s="16"/>
-      <c r="AZ36" s="16"/>
-      <c r="BA36" s="16"/>
-      <c r="BB36" s="16"/>
-      <c r="BC36" s="16"/>
-      <c r="BD36" s="16"/>
-      <c r="BE36" s="16"/>
-      <c r="BF36" s="16"/>
-      <c r="BG36" s="16"/>
-      <c r="BH36" s="16"/>
-      <c r="BI36" s="17"/>
-    </row>
-    <row r="37" spans="2:61">
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="14"/>
+      <c r="AZ36" s="14"/>
+      <c r="BA36" s="14"/>
+      <c r="BB36" s="14"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="19"/>
+    </row>
+    <row r="37" spans="2:101">
       <c r="B37" s="18"/>
       <c r="C37" s="24"/>
       <c r="D37" s="25"/>
@@ -3100,24 +3548,26 @@
       <c r="O37" s="14"/>
       <c r="P37" s="19"/>
       <c r="W37" s="18"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="17"/>
       <c r="AK37" s="19"/>
-      <c r="AU37" s="18"/>
-      <c r="AV37" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
       <c r="AW37" s="14"/>
       <c r="AX37" s="14"/>
       <c r="AY37" s="14"/>
@@ -3126,13 +3576,9 @@
       <c r="BB37" s="14"/>
       <c r="BC37" s="14"/>
       <c r="BD37" s="14"/>
-      <c r="BE37" s="14"/>
-      <c r="BF37" s="14"/>
-      <c r="BG37" s="14"/>
-      <c r="BH37" s="14"/>
-      <c r="BI37" s="19"/>
-    </row>
-    <row r="38" spans="2:61">
+      <c r="BE37" s="19"/>
+    </row>
+    <row r="38" spans="2:101">
       <c r="B38" s="18"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -3149,37 +3595,39 @@
       <c r="O38" s="14"/>
       <c r="P38" s="19"/>
       <c r="W38" s="18"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="19"/>
       <c r="AK38" s="19"/>
-      <c r="AU38" s="20"/>
-      <c r="AV38" s="21"/>
-      <c r="AW38" s="21"/>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="21"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="21"/>
-      <c r="BB38" s="21"/>
-      <c r="BC38" s="21"/>
-      <c r="BD38" s="21"/>
-      <c r="BE38" s="21"/>
-      <c r="BF38" s="21"/>
-      <c r="BG38" s="21"/>
-      <c r="BH38" s="21"/>
-      <c r="BI38" s="22"/>
-    </row>
-    <row r="39" spans="2:61">
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+      <c r="AU38" s="14"/>
+      <c r="AV38" s="14"/>
+      <c r="AW38" s="14"/>
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="14"/>
+      <c r="AZ38" s="14"/>
+      <c r="BA38" s="14"/>
+      <c r="BB38" s="14"/>
+      <c r="BC38" s="14"/>
+      <c r="BD38" s="14"/>
+      <c r="BE38" s="19"/>
+    </row>
+    <row r="39" spans="2:101">
       <c r="B39" s="18"/>
       <c r="C39" s="14" t="s">
         <v>13</v>
@@ -3198,21 +3646,25 @@
       <c r="O39" s="14"/>
       <c r="P39" s="19"/>
       <c r="W39" s="18"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="19"/>
       <c r="AK39" s="19"/>
-      <c r="AU39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+      <c r="AU39" s="14"/>
       <c r="AV39" s="14"/>
       <c r="AW39" s="14"/>
       <c r="AX39" s="14"/>
@@ -3222,13 +3674,9 @@
       <c r="BB39" s="14"/>
       <c r="BC39" s="14"/>
       <c r="BD39" s="14"/>
-      <c r="BE39" s="14"/>
-      <c r="BF39" s="14"/>
-      <c r="BG39" s="14"/>
-      <c r="BH39" s="14"/>
-      <c r="BI39" s="19"/>
-    </row>
-    <row r="40" spans="2:61">
+      <c r="BE39" s="19"/>
+    </row>
+    <row r="40" spans="2:101">
       <c r="B40" s="18"/>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
@@ -3245,21 +3693,25 @@
       <c r="O40" s="14"/>
       <c r="P40" s="19"/>
       <c r="W40" s="18"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="19"/>
       <c r="AK40" s="19"/>
-      <c r="AU40" s="18"/>
+      <c r="AQ40" s="18"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
       <c r="AV40" s="14"/>
       <c r="AW40" s="14"/>
       <c r="AX40" s="14"/>
@@ -3269,13 +3721,9 @@
       <c r="BB40" s="14"/>
       <c r="BC40" s="14"/>
       <c r="BD40" s="14"/>
-      <c r="BE40" s="14"/>
-      <c r="BF40" s="14"/>
-      <c r="BG40" s="14"/>
-      <c r="BH40" s="14"/>
-      <c r="BI40" s="19"/>
-    </row>
-    <row r="41" spans="2:61">
+      <c r="BE40" s="19"/>
+    </row>
+    <row r="41" spans="2:101">
       <c r="B41" s="18"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -3292,21 +3740,25 @@
       <c r="O41" s="14"/>
       <c r="P41" s="19"/>
       <c r="W41" s="18"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="19"/>
       <c r="AK41" s="19"/>
-      <c r="AU41" s="18"/>
+      <c r="AQ41" s="18"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
       <c r="AV41" s="14"/>
       <c r="AW41" s="14"/>
       <c r="AX41" s="14"/>
@@ -3316,13 +3768,9 @@
       <c r="BB41" s="14"/>
       <c r="BC41" s="14"/>
       <c r="BD41" s="14"/>
-      <c r="BE41" s="14"/>
-      <c r="BF41" s="14"/>
-      <c r="BG41" s="14"/>
-      <c r="BH41" s="14"/>
-      <c r="BI41" s="19"/>
-    </row>
-    <row r="42" spans="2:61">
+      <c r="BE41" s="19"/>
+    </row>
+    <row r="42" spans="2:101">
       <c r="B42" s="18"/>
       <c r="C42" s="14" t="s">
         <v>41</v>
@@ -3341,21 +3789,25 @@
       <c r="O42" s="14"/>
       <c r="P42" s="19"/>
       <c r="W42" s="18"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="19"/>
       <c r="AK42" s="19"/>
-      <c r="AU42" s="18"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
       <c r="AV42" s="14"/>
       <c r="AW42" s="14"/>
       <c r="AX42" s="14"/>
@@ -3365,13 +3817,9 @@
       <c r="BB42" s="14"/>
       <c r="BC42" s="14"/>
       <c r="BD42" s="14"/>
-      <c r="BE42" s="14"/>
-      <c r="BF42" s="14"/>
-      <c r="BG42" s="14"/>
-      <c r="BH42" s="14"/>
-      <c r="BI42" s="19"/>
-    </row>
-    <row r="43" spans="2:61">
+      <c r="BE42" s="19"/>
+    </row>
+    <row r="43" spans="2:101">
       <c r="B43" s="18"/>
       <c r="C43" s="24"/>
       <c r="D43" s="25"/>
@@ -3388,21 +3836,25 @@
       <c r="O43" s="23"/>
       <c r="P43" s="19"/>
       <c r="W43" s="18"/>
-      <c r="X43" s="23"/>
+      <c r="X43" s="18"/>
       <c r="Y43" s="23"/>
       <c r="Z43" s="23"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="19"/>
       <c r="AK43" s="19"/>
-      <c r="AU43" s="18"/>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="23"/>
+      <c r="AU43" s="14"/>
       <c r="AV43" s="14"/>
       <c r="AW43" s="14"/>
       <c r="AX43" s="14"/>
@@ -3411,14 +3863,10 @@
       <c r="BA43" s="14"/>
       <c r="BB43" s="14"/>
       <c r="BC43" s="14"/>
-      <c r="BD43" s="14"/>
-      <c r="BE43" s="14"/>
-      <c r="BF43" s="14"/>
-      <c r="BG43" s="14"/>
-      <c r="BH43" s="14"/>
-      <c r="BI43" s="19"/>
-    </row>
-    <row r="44" spans="2:61">
+      <c r="BD43" s="23"/>
+      <c r="BE43" s="19"/>
+    </row>
+    <row r="44" spans="2:101">
       <c r="B44" s="18"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -3435,21 +3883,25 @@
       <c r="O44" s="14"/>
       <c r="P44" s="19"/>
       <c r="W44" s="18"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="19"/>
       <c r="AK44" s="19"/>
-      <c r="AU44" s="18"/>
+      <c r="AQ44" s="18"/>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="AU44" s="14"/>
       <c r="AV44" s="14"/>
       <c r="AW44" s="14"/>
       <c r="AX44" s="14"/>
@@ -3459,13 +3911,9 @@
       <c r="BB44" s="14"/>
       <c r="BC44" s="14"/>
       <c r="BD44" s="14"/>
-      <c r="BE44" s="14"/>
-      <c r="BF44" s="14"/>
-      <c r="BG44" s="14"/>
-      <c r="BH44" s="14"/>
-      <c r="BI44" s="19"/>
-    </row>
-    <row r="45" spans="2:61">
+      <c r="BE44" s="19"/>
+    </row>
+    <row r="45" spans="2:101">
       <c r="B45" s="18"/>
       <c r="C45" s="14" t="s">
         <v>42</v>
@@ -3484,21 +3932,29 @@
       <c r="O45" s="14"/>
       <c r="P45" s="19"/>
       <c r="W45" s="18"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="14"/>
-      <c r="AE45" s="14"/>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="14"/>
-      <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="19"/>
       <c r="AK45" s="19"/>
-      <c r="AU45" s="18"/>
+      <c r="AQ45" s="18"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="14"/>
+      <c r="AT45" s="14"/>
+      <c r="AU45" s="14"/>
       <c r="AV45" s="14"/>
       <c r="AW45" s="14"/>
       <c r="AX45" s="14"/>
@@ -3508,13 +3964,9 @@
       <c r="BB45" s="14"/>
       <c r="BC45" s="14"/>
       <c r="BD45" s="14"/>
-      <c r="BE45" s="14"/>
-      <c r="BF45" s="14"/>
-      <c r="BG45" s="14"/>
-      <c r="BH45" s="14"/>
-      <c r="BI45" s="19"/>
-    </row>
-    <row r="46" spans="2:61">
+      <c r="BE45" s="19"/>
+    </row>
+    <row r="46" spans="2:101">
       <c r="B46" s="18"/>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
@@ -3531,21 +3983,25 @@
       <c r="O46" s="14"/>
       <c r="P46" s="19"/>
       <c r="W46" s="18"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="21"/>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="22"/>
       <c r="AK46" s="19"/>
-      <c r="AU46" s="18"/>
+      <c r="AQ46" s="18"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
       <c r="AV46" s="14"/>
       <c r="AW46" s="14"/>
       <c r="AX46" s="14"/>
@@ -3555,13 +4011,9 @@
       <c r="BB46" s="14"/>
       <c r="BC46" s="14"/>
       <c r="BD46" s="14"/>
-      <c r="BE46" s="14"/>
-      <c r="BF46" s="14"/>
-      <c r="BG46" s="14"/>
-      <c r="BH46" s="14"/>
-      <c r="BI46" s="19"/>
-    </row>
-    <row r="47" spans="2:61">
+      <c r="BE46" s="19"/>
+    </row>
+    <row r="47" spans="2:101">
       <c r="B47" s="18"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -3592,23 +4044,23 @@
       <c r="AI47" s="14"/>
       <c r="AJ47" s="14"/>
       <c r="AK47" s="19"/>
-      <c r="AU47" s="18"/>
-      <c r="AV47" s="23"/>
-      <c r="AW47" s="23"/>
-      <c r="AX47" s="23"/>
+      <c r="AQ47" s="18"/>
+      <c r="AR47" s="14"/>
+      <c r="AS47" s="14"/>
+      <c r="AT47" s="14"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="14"/>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="14"/>
       <c r="AY47" s="14"/>
       <c r="AZ47" s="14"/>
       <c r="BA47" s="14"/>
       <c r="BB47" s="14"/>
       <c r="BC47" s="14"/>
       <c r="BD47" s="14"/>
-      <c r="BE47" s="14"/>
-      <c r="BF47" s="14"/>
-      <c r="BG47" s="14"/>
-      <c r="BH47" s="23"/>
-      <c r="BI47" s="19"/>
-    </row>
-    <row r="48" spans="2:61">
+      <c r="BE47" s="19"/>
+    </row>
+    <row r="48" spans="2:101">
       <c r="B48" s="18"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -3629,17 +4081,23 @@
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
+      <c r="AB48" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="26"/>
       <c r="AH48" s="14"/>
       <c r="AI48" s="14"/>
       <c r="AJ48" s="14"/>
       <c r="AK48" s="19"/>
-      <c r="AU48" s="18"/>
+      <c r="AQ48" s="18"/>
+      <c r="AR48" s="14"/>
+      <c r="AS48" s="14"/>
+      <c r="AT48" s="14"/>
+      <c r="AU48" s="14"/>
       <c r="AV48" s="14"/>
       <c r="AW48" s="14"/>
       <c r="AX48" s="14"/>
@@ -3649,13 +4107,9 @@
       <c r="BB48" s="14"/>
       <c r="BC48" s="14"/>
       <c r="BD48" s="14"/>
-      <c r="BE48" s="14"/>
-      <c r="BF48" s="14"/>
-      <c r="BG48" s="14"/>
-      <c r="BH48" s="14"/>
-      <c r="BI48" s="19"/>
-    </row>
-    <row r="49" spans="2:61">
+      <c r="BE48" s="19"/>
+    </row>
+    <row r="49" spans="2:57">
       <c r="B49" s="18"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -3688,7 +4142,11 @@
       <c r="AI49" s="14"/>
       <c r="AJ49" s="14"/>
       <c r="AK49" s="19"/>
-      <c r="AU49" s="18"/>
+      <c r="AQ49" s="18"/>
+      <c r="AR49" s="14"/>
+      <c r="AS49" s="14"/>
+      <c r="AT49" s="14"/>
+      <c r="AU49" s="14"/>
       <c r="AV49" s="14"/>
       <c r="AW49" s="14"/>
       <c r="AX49" s="14"/>
@@ -3698,13 +4156,9 @@
       <c r="BB49" s="14"/>
       <c r="BC49" s="14"/>
       <c r="BD49" s="14"/>
-      <c r="BE49" s="14"/>
-      <c r="BF49" s="14"/>
-      <c r="BG49" s="14"/>
-      <c r="BH49" s="14"/>
-      <c r="BI49" s="19"/>
-    </row>
-    <row r="50" spans="2:61">
+      <c r="BE49" s="19"/>
+    </row>
+    <row r="50" spans="2:57">
       <c r="B50" s="18"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -3735,7 +4189,11 @@
       <c r="AI50" s="14"/>
       <c r="AJ50" s="14"/>
       <c r="AK50" s="19"/>
-      <c r="AU50" s="18"/>
+      <c r="AQ50" s="18"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="14"/>
       <c r="AV50" s="14"/>
       <c r="AW50" s="14"/>
       <c r="AX50" s="14"/>
@@ -3745,13 +4203,9 @@
       <c r="BB50" s="14"/>
       <c r="BC50" s="14"/>
       <c r="BD50" s="14"/>
-      <c r="BE50" s="14"/>
-      <c r="BF50" s="14"/>
-      <c r="BG50" s="14"/>
-      <c r="BH50" s="14"/>
-      <c r="BI50" s="19"/>
-    </row>
-    <row r="51" spans="2:61">
+      <c r="BE50" s="19"/>
+    </row>
+    <row r="51" spans="2:57">
       <c r="B51" s="18"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -3782,7 +4236,11 @@
       <c r="AI51" s="14"/>
       <c r="AJ51" s="14"/>
       <c r="AK51" s="19"/>
-      <c r="AU51" s="18"/>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="14"/>
       <c r="AV51" s="14"/>
       <c r="AW51" s="14"/>
       <c r="AX51" s="14"/>
@@ -3792,13 +4250,9 @@
       <c r="BB51" s="14"/>
       <c r="BC51" s="14"/>
       <c r="BD51" s="14"/>
-      <c r="BE51" s="14"/>
-      <c r="BF51" s="14"/>
-      <c r="BG51" s="14"/>
-      <c r="BH51" s="14"/>
-      <c r="BI51" s="19"/>
-    </row>
-    <row r="52" spans="2:61">
+      <c r="BE51" s="19"/>
+    </row>
+    <row r="52" spans="2:57">
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -3829,23 +4283,23 @@
       <c r="AI52" s="16"/>
       <c r="AJ52" s="16"/>
       <c r="AK52" s="17"/>
-      <c r="AU52" s="18"/>
-      <c r="AV52" s="14"/>
-      <c r="AW52" s="14"/>
-      <c r="AX52" s="14"/>
-      <c r="AY52" s="14"/>
-      <c r="AZ52" s="14"/>
-      <c r="BA52" s="14"/>
-      <c r="BB52" s="14"/>
-      <c r="BC52" s="14"/>
-      <c r="BD52" s="14"/>
-      <c r="BE52" s="14"/>
-      <c r="BF52" s="14"/>
-      <c r="BG52" s="14"/>
-      <c r="BH52" s="14"/>
-      <c r="BI52" s="19"/>
-    </row>
-    <row r="53" spans="2:61">
+      <c r="AQ52" s="15"/>
+      <c r="AR52" s="16"/>
+      <c r="AS52" s="16"/>
+      <c r="AT52" s="16"/>
+      <c r="AU52" s="16"/>
+      <c r="AV52" s="16"/>
+      <c r="AW52" s="16"/>
+      <c r="AX52" s="16"/>
+      <c r="AY52" s="16"/>
+      <c r="AZ52" s="16"/>
+      <c r="BA52" s="16"/>
+      <c r="BB52" s="16"/>
+      <c r="BC52" s="16"/>
+      <c r="BD52" s="16"/>
+      <c r="BE52" s="17"/>
+    </row>
+    <row r="53" spans="2:57">
       <c r="B53" s="18"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -3880,8 +4334,14 @@
       <c r="AI53" s="14"/>
       <c r="AJ53" s="14"/>
       <c r="AK53" s="19"/>
-      <c r="AU53" s="18"/>
-      <c r="AV53" s="14"/>
+      <c r="AQ53" s="18"/>
+      <c r="AR53" s="14"/>
+      <c r="AS53" s="14"/>
+      <c r="AT53" s="14"/>
+      <c r="AU53" s="14"/>
+      <c r="AV53" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="AW53" s="14"/>
       <c r="AX53" s="14"/>
       <c r="AY53" s="14"/>
@@ -3890,13 +4350,9 @@
       <c r="BB53" s="14"/>
       <c r="BC53" s="14"/>
       <c r="BD53" s="14"/>
-      <c r="BE53" s="14"/>
-      <c r="BF53" s="14"/>
-      <c r="BG53" s="14"/>
-      <c r="BH53" s="14"/>
-      <c r="BI53" s="19"/>
-    </row>
-    <row r="54" spans="2:61">
+      <c r="BE53" s="19"/>
+    </row>
+    <row r="54" spans="2:57">
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
@@ -3927,91 +4383,21 @@
       <c r="AI54" s="21"/>
       <c r="AJ54" s="21"/>
       <c r="AK54" s="22"/>
-      <c r="AU54" s="18"/>
-      <c r="AV54" s="14"/>
-      <c r="AW54" s="14"/>
-      <c r="AX54" s="14"/>
-      <c r="AY54" s="14"/>
-      <c r="AZ54" s="14"/>
-      <c r="BA54" s="14"/>
-      <c r="BB54" s="14"/>
-      <c r="BC54" s="14"/>
-      <c r="BD54" s="14"/>
-      <c r="BE54" s="14"/>
-      <c r="BF54" s="14"/>
-      <c r="BG54" s="14"/>
-      <c r="BH54" s="14"/>
-      <c r="BI54" s="19"/>
-    </row>
-    <row r="55" spans="2:61">
-      <c r="AU55" s="18"/>
-      <c r="AV55" s="14"/>
-      <c r="AW55" s="14"/>
-      <c r="AX55" s="14"/>
-      <c r="AY55" s="14"/>
-      <c r="AZ55" s="14"/>
-      <c r="BA55" s="14"/>
-      <c r="BB55" s="14"/>
-      <c r="BC55" s="14"/>
-      <c r="BD55" s="14"/>
-      <c r="BE55" s="14"/>
-      <c r="BF55" s="14"/>
-      <c r="BG55" s="14"/>
-      <c r="BH55" s="14"/>
-      <c r="BI55" s="19"/>
-    </row>
-    <row r="56" spans="2:61">
-      <c r="AU56" s="15"/>
-      <c r="AV56" s="16"/>
-      <c r="AW56" s="16"/>
-      <c r="AX56" s="16"/>
-      <c r="AY56" s="16"/>
-      <c r="AZ56" s="16"/>
-      <c r="BA56" s="16"/>
-      <c r="BB56" s="16"/>
-      <c r="BC56" s="16"/>
-      <c r="BD56" s="16"/>
-      <c r="BE56" s="16"/>
-      <c r="BF56" s="16"/>
-      <c r="BG56" s="16"/>
-      <c r="BH56" s="16"/>
-      <c r="BI56" s="17"/>
-    </row>
-    <row r="57" spans="2:61">
-      <c r="AU57" s="18"/>
-      <c r="AV57" s="14"/>
-      <c r="AW57" s="14"/>
-      <c r="AX57" s="14"/>
-      <c r="AY57" s="14"/>
-      <c r="AZ57" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="BA57" s="14"/>
-      <c r="BB57" s="14"/>
-      <c r="BC57" s="14"/>
-      <c r="BD57" s="14"/>
-      <c r="BE57" s="14"/>
-      <c r="BF57" s="14"/>
-      <c r="BG57" s="14"/>
-      <c r="BH57" s="14"/>
-      <c r="BI57" s="19"/>
-    </row>
-    <row r="58" spans="2:61">
-      <c r="AU58" s="20"/>
-      <c r="AV58" s="21"/>
-      <c r="AW58" s="21"/>
-      <c r="AX58" s="21"/>
-      <c r="AY58" s="21"/>
-      <c r="AZ58" s="21"/>
-      <c r="BA58" s="21"/>
-      <c r="BB58" s="21"/>
-      <c r="BC58" s="21"/>
-      <c r="BD58" s="21"/>
-      <c r="BE58" s="21"/>
-      <c r="BF58" s="21"/>
-      <c r="BG58" s="21"/>
-      <c r="BH58" s="21"/>
-      <c r="BI58" s="22"/>
+      <c r="AQ54" s="20"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="21"/>
+      <c r="AW54" s="21"/>
+      <c r="AX54" s="21"/>
+      <c r="AY54" s="21"/>
+      <c r="AZ54" s="21"/>
+      <c r="BA54" s="21"/>
+      <c r="BB54" s="21"/>
+      <c r="BC54" s="21"/>
+      <c r="BD54" s="21"/>
+      <c r="BE54" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
